--- a/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
+++ b/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
     <sheet name="Beneficios" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Flujo de caja descontada" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc250906791" localSheetId="0">Costos!$C$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Tipo</t>
   </si>
@@ -166,30 +167,43 @@
     <t>Mayor productividad</t>
   </si>
   <si>
+    <t xml:space="preserve">Disminucion espacio fisico </t>
+  </si>
+  <si>
+    <t>Aumento eficiencia del servicio</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Control de llamadas internas</t>
+  </si>
+  <si>
+    <t>Tangibles</t>
+  </si>
+  <si>
     <t>Ahorro total en 
-ciclo de vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disminucion espacio fisico </t>
-  </si>
-  <si>
-    <t>Aumento eficiencia del servicio</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Control de llamadas internas</t>
-  </si>
-  <si>
-    <t>Tangibles</t>
+ciclo de vida
+(dolares)</t>
+  </si>
+  <si>
+    <t>Costo total del proyecto en dólares</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="\u&quot;$&quot;&quot;$&quot;\ #,##0;&quot;$&quot;\ \-#,##0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +239,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -625,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,12 +660,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -687,93 +703,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -782,6 +801,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:M22"/>
+  <dimension ref="C1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1089,691 +1129,707 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:13">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>170</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>E3*F3</f>
         <v>340</v>
       </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
         <f>H3*E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
         <f>J3*E3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
         <f>L3*E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>96</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="15">
-        <f t="shared" ref="G4:G21" si="0">E4*F4</f>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G16" si="0">E4*F4</f>
         <v>192</v>
       </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <f t="shared" ref="I4:I16" si="1">H4*E4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K9" si="2">J4*E4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M22" si="3">L4*E4</f>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M20" si="3">L4*E4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>50</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>4</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>88</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>24</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>38</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15">
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
         <f>J10*E10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>800</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" ref="K11:K20" si="4">J12*E12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" ref="K12:K20" si="4">J12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="10">
-        <v>100</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="8">
+        <v>120</v>
+      </c>
+      <c r="F13" s="12">
         <v>30</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="H13" s="14">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="12">
         <v>400</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
+        <v>48000</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>160</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8">
         <v>1500</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15">
+      <c r="H16" s="12"/>
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15">
-        <f>SUM(G3:G16)*1.17</f>
-        <v>8765.64</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15">
-        <f t="shared" ref="H18:I18" si="5">SUM(I3:I16)*1.17</f>
-        <v>46800</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13">
+        <f>SUM(G3:G16)*0.17</f>
+        <v>1375.64</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13">
+        <f>SUM(I3:I16)*0.17</f>
+        <v>8160.0000000000009</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15">
+      <c r="L18" s="12"/>
+      <c r="M18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="3:13" ht="25.5" thickBot="1">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>1100</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f>F20*E20</f>
         <v>2200</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <v>2</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="22">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="22">
         <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="21">
         <v>2</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="22">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27">
+      <c r="F22" s="47"/>
+      <c r="G22" s="59">
         <f>SUM(G3:G20)</f>
-        <v>18457.64</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27">
-        <f t="shared" ref="H22:M22" si="6">SUM(I3:I20)</f>
-        <v>89000</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27">
-        <f t="shared" si="6"/>
+        <v>11667.64</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="59">
+        <f t="shared" ref="I22:M22" si="5">SUM(I3:I20)</f>
+        <v>58360</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="59">
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
-      <c r="L22" s="27">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" si="6"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="60">
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
     </row>
+    <row r="23" spans="3:13" ht="15.75" thickBot="1"/>
+    <row r="24" spans="3:13" ht="15.75" thickBot="1">
+      <c r="E24" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="61">
+        <f>SUM(G22,I22,K22,M22)</f>
+        <v>74427.64</v>
+      </c>
+      <c r="M24" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -1787,242 +1843,314 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:J15"/>
+  <dimension ref="C4:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="28" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2600</v>
+      </c>
+      <c r="F6" s="39">
+        <f>E6*1.17</f>
+        <v>3042</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" ref="G6:I6" si="0">F6*1.17</f>
+        <v>3559.14</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>4164.1938</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="0"/>
+        <v>4872.1067459999995</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="49"/>
+      <c r="D7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="34">
+        <v>13000</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" ref="F7:I7" si="1">E7*1.17</f>
+        <v>15209.999999999998</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>17795.699999999997</v>
+      </c>
+      <c r="H7" s="35">
+        <f t="shared" si="1"/>
+        <v>20820.968999999994</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="1"/>
+        <v>24360.533729999992</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="49"/>
+      <c r="D8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="35">
+        <f t="shared" ref="F8:I8" si="2">E8*1.17</f>
+        <v>3744</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="2"/>
+        <v>4380.4799999999996</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" si="2"/>
+        <v>5125.1615999999995</v>
+      </c>
+      <c r="I8" s="33">
+        <f t="shared" si="2"/>
+        <v>5996.4390719999992</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C9" s="50"/>
+      <c r="D9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="41">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" ref="F9:I9" si="3">E9*1.17</f>
+        <v>14040</v>
+      </c>
+      <c r="G9" s="43">
+        <f t="shared" si="3"/>
+        <v>16426.8</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="3"/>
+        <v>19219.356</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="3"/>
+        <v>22486.646519999998</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="47">
-        <v>9100</v>
-      </c>
-      <c r="F6" s="48">
-        <f>E6*1.17</f>
-        <v>10647</v>
-      </c>
-      <c r="G6" s="47">
-        <f t="shared" ref="G6:I6" si="0">F6*1.17</f>
-        <v>12456.99</v>
-      </c>
-      <c r="H6" s="48">
-        <f t="shared" si="0"/>
-        <v>14574.6783</v>
-      </c>
-      <c r="I6" s="47">
-        <f t="shared" si="0"/>
-        <v>17052.373610999999</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="34"/>
-      <c r="D7" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="41">
-        <v>45500</v>
-      </c>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7:I7" si="1">E7*1.17</f>
-        <v>53235</v>
-      </c>
-      <c r="G7" s="40">
-        <f t="shared" si="1"/>
-        <v>62284.95</v>
-      </c>
-      <c r="H7" s="42">
-        <f t="shared" si="1"/>
-        <v>72873.391499999998</v>
-      </c>
-      <c r="I7" s="40">
-        <f t="shared" si="1"/>
-        <v>85261.868054999999</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="34"/>
-      <c r="D8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="41">
-        <v>13000</v>
-      </c>
-      <c r="F8" s="42">
-        <f t="shared" ref="F8:I8" si="2">E8*1.17</f>
-        <v>15209.999999999998</v>
-      </c>
-      <c r="G8" s="40">
-        <f t="shared" si="2"/>
-        <v>17795.699999999997</v>
-      </c>
-      <c r="H8" s="42">
-        <f t="shared" si="2"/>
-        <v>20820.968999999994</v>
-      </c>
-      <c r="I8" s="40">
-        <f t="shared" si="2"/>
-        <v>24360.533729999992</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="51">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="52">
-        <f t="shared" ref="F9:I9" si="3">E9*1.17</f>
-        <v>2340</v>
-      </c>
-      <c r="G9" s="53">
-        <f t="shared" si="3"/>
-        <v>2737.7999999999997</v>
-      </c>
-      <c r="H9" s="52">
-        <f t="shared" si="3"/>
-        <v>3203.2259999999997</v>
-      </c>
-      <c r="I9" s="53">
-        <f t="shared" si="3"/>
-        <v>3747.7744199999993</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="54" t="s">
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="51"/>
+      <c r="D11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" customHeight="1">
+      <c r="C12" s="51"/>
+      <c r="D12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="51"/>
+      <c r="D13" s="31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="30"/>
-      <c r="D11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="55"/>
-    </row>
-    <row r="12" spans="3:10" ht="15" customHeight="1">
-      <c r="C12" s="30"/>
-      <c r="D12" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="55"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="30"/>
-      <c r="D13" s="38" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C14" s="52"/>
+      <c r="D14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="55"/>
-    </row>
-    <row r="14" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C14" s="44"/>
-      <c r="D14" s="38" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C15" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32">
+      <c r="D15" s="24"/>
+      <c r="E15" s="26">
         <f>SUM(E6:E9)</f>
-        <v>69600</v>
-      </c>
-      <c r="F15" s="39">
+        <v>30800</v>
+      </c>
+      <c r="F15" s="32">
         <f t="shared" ref="F15:I15" si="4">SUM(F6:F9)</f>
-        <v>81432</v>
-      </c>
-      <c r="G15" s="32">
+        <v>36036</v>
+      </c>
+      <c r="G15" s="26">
         <f t="shared" si="4"/>
-        <v>95275.44</v>
-      </c>
-      <c r="H15" s="39">
+        <v>42162.119999999995</v>
+      </c>
+      <c r="H15" s="32">
         <f t="shared" si="4"/>
-        <v>111472.26479999999</v>
-      </c>
-      <c r="I15" s="32">
+        <v>49329.680399999997</v>
+      </c>
+      <c r="I15" s="26">
         <f t="shared" si="4"/>
-        <v>130422.549816</v>
-      </c>
-      <c r="J15" s="33">
+        <v>57715.726067999989</v>
+      </c>
+      <c r="J15" s="27">
         <f>SUM(E15:I15)</f>
-        <v>488202.25461599999</v>
+        <v>216043.526468</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="56">
+        <f>-Costos!L24</f>
+        <v>-74427.64</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="56">
+        <f>F21+E15/(1.013)</f>
+        <v>-44022.901599210265</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="56">
+        <f>F22+F15/(1.013)^2</f>
+        <v>-8905.8789645370271</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>3.5</v>
+      </c>
+      <c r="F24" s="56">
+        <f>F23+G15/(1.013)^3</f>
+        <v>31653.762183111234</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>4.5</v>
+      </c>
+      <c r="F25" s="56">
+        <f>F24+H15/(1.013)^4</f>
+        <v>78499.547121658587</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>6.5</v>
+      </c>
+      <c r="F26" s="56">
+        <f>F25+I15/(1.013)^5</f>
+        <v>132605.7350566047</v>
       </c>
     </row>
   </sheetData>
@@ -2037,12 +2165,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E5:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="5:13">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13">
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>-247325</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13">
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>-187098</v>
+      </c>
+      <c r="H7">
+        <f>F6+61010/1.013</f>
+        <v>-187097.95162882528</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>-130345</v>
+      </c>
+      <c r="H8">
+        <f>F7+58238/(1.013)^2</f>
+        <v>-130345.16494066766</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9">
+        <v>-74320</v>
+      </c>
+      <c r="H9">
+        <f>F8+58238/(1.013)^3</f>
+        <v>-74320.483653176372</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
+      <c r="M14">
+        <v>247325</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
+++ b/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
-    <sheet name="Beneficios" sheetId="2" r:id="rId2"/>
-    <sheet name="Flujo de caja descontada" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Beneficios" sheetId="2" r:id="rId3"/>
+    <sheet name="Flujo de caja descontada" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc250906791" localSheetId="0">Costos!$C$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Tipo</t>
   </si>
@@ -193,15 +193,22 @@
     <t>Año</t>
   </si>
   <si>
-    <t xml:space="preserve">FCD </t>
+    <t>FCD(ti=0)</t>
+  </si>
+  <si>
+    <t>FCD(ti=TIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCD(ti=1,3) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="\u&quot;$&quot;&quot;$&quot;\ #,##0;&quot;$&quot;\ \-#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\u&quot;$&quot;&quot;$&quot;\ #,##0;&quot;$&quot;\ \-#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -647,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +773,27 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,27 +830,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,6 +839,411 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Flujo de caja descontada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beneficios!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCD(ti=0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Beneficios!$E$20:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Beneficios!$G$20:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74427.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43627.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7986.901599210265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33256.241035462968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80983.442583111231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136215.27318965859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beneficios!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCD(ti=TIR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Beneficios!$E$20:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Beneficios!$H$20:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74427.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-52889.17846153846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18822.901599210265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20578.121035462969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66150.042183111233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118860.19472165858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beneficios!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCD(ti=1,3) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Beneficios!$E$20:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Beneficios!$F$20:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74427.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-44022.901599210265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8905.8789645370271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31653.762183111234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78499.547121658587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132605.7350566047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="85245952"/>
+        <c:axId val="70931584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85245952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR" sz="1200"/>
+                  <a:t>AÑOS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70931584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70931584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR" sz="1200"/>
+                  <a:t>FCD (U$S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85245952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,22 +1556,22 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" s="6" t="s">
@@ -1785,46 +2199,46 @@
     <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="59">
+      <c r="F22" s="54"/>
+      <c r="G22" s="45">
         <f>SUM(G3:G20)</f>
         <v>11667.64</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="59">
+      <c r="I22" s="45">
         <f t="shared" ref="I22:M22" si="5">SUM(I3:I20)</f>
         <v>58360</v>
       </c>
       <c r="J22" s="23"/>
-      <c r="K22" s="59">
+      <c r="K22" s="45">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
       <c r="L22" s="23"/>
-      <c r="M22" s="60">
+      <c r="M22" s="46">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="3:13" ht="15.75" thickBot="1">
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="61">
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49">
         <f>SUM(G22,I22,K22,M22)</f>
         <v>74427.64</v>
       </c>
-      <c r="M24" s="62"/>
+      <c r="M24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1845,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,8 +2268,10 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
@@ -1884,7 +2300,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -1912,7 +2328,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="49"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="31" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +2354,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="49"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="31" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +2380,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C9" s="50"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="40" t="s">
         <v>44</v>
       </c>
@@ -1990,7 +2406,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2001,12 +2417,12 @@
       <c r="G10" s="25"/>
       <c r="H10" s="4"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="51"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="31" t="s">
         <v>47</v>
       </c>
@@ -2015,10 +2431,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="4"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="54"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="3:10" ht="15" customHeight="1">
-      <c r="C12" s="51"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="31" t="s">
         <v>51</v>
       </c>
@@ -2027,10 +2443,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="4"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="51"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="31" t="s">
         <v>48</v>
       </c>
@@ -2039,10 +2455,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="4"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C14" s="52"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="31" t="s">
         <v>49</v>
       </c>
@@ -2051,7 +2467,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="4"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1">
       <c r="C15" s="24" t="s">
@@ -2083,74 +2499,134 @@
         <v>216043.526468</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:8">
       <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="44">
         <f>-Costos!L24</f>
         <v>-74427.64</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
+      <c r="G21" s="44">
+        <f>-Costos!L24</f>
+        <v>-74427.64</v>
+      </c>
+      <c r="H21" s="44">
+        <f>-Costos!L24</f>
+        <v>-74427.64</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
       <c r="E22">
         <v>1.5</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="44">
         <f>F21+E15/(1.013)</f>
         <v>-44022.901599210265</v>
       </c>
-    </row>
-    <row r="23" spans="5:6">
+      <c r="G22" s="44">
+        <f>$F21+E15/(1)</f>
+        <v>-43627.64</v>
+      </c>
+      <c r="H22" s="44">
+        <f>$F21+E$15/(1.43)</f>
+        <v>-52889.17846153846</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
       <c r="E23">
         <v>2.5</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="44">
         <f>F22+F15/(1.013)^2</f>
         <v>-8905.8789645370271</v>
       </c>
-    </row>
-    <row r="24" spans="5:6">
+      <c r="G23" s="44">
+        <f>F22+F15/(1)^2</f>
+        <v>-7986.901599210265</v>
+      </c>
+      <c r="H23" s="44">
+        <f>$F22+F$15/(1.43)</f>
+        <v>-18822.901599210265</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24">
         <v>3.5</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="44">
         <f>F23+G15/(1.013)^3</f>
         <v>31653.762183111234</v>
       </c>
-    </row>
-    <row r="25" spans="5:6">
+      <c r="G24" s="44">
+        <f>F23+G15/(1)^3</f>
+        <v>33256.241035462968</v>
+      </c>
+      <c r="H24" s="44">
+        <f>$F23+G$15/(1.43)</f>
+        <v>20578.121035462969</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25">
         <v>4.5</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="44">
         <f>F24+H15/(1.013)^4</f>
         <v>78499.547121658587</v>
       </c>
-    </row>
-    <row r="26" spans="5:6">
+      <c r="G25" s="44">
+        <f>F24+H15/(1)^4</f>
+        <v>80983.442583111231</v>
+      </c>
+      <c r="H25" s="44">
+        <f>$F24+H$15/(1.43)</f>
+        <v>66150.042183111233</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26">
         <v>6.5</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="44">
         <f>F25+I15/(1.013)^5</f>
         <v>132605.7350566047</v>
+      </c>
+      <c r="G26" s="44">
+        <f>F25+I15/(1)^5</f>
+        <v>136215.27318965859</v>
+      </c>
+      <c r="H26" s="44">
+        <f>$F25+I$15/(1.43)</f>
+        <v>118860.19472165858</v>
       </c>
     </row>
   </sheetData>
@@ -2165,13 +2641,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E5:M14"/>
+  <dimension ref="B5:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="5:13">
       <c r="E5">
@@ -2186,7 +2667,7 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>-247325</v>
+        <v>-74427.64</v>
       </c>
     </row>
     <row r="7" spans="5:13">
@@ -2198,7 +2679,7 @@
       </c>
       <c r="H7">
         <f>F6+61010/1.013</f>
-        <v>-187097.95162882528</v>
+        <v>-14200.591628825263</v>
       </c>
     </row>
     <row r="8" spans="5:13">
@@ -2236,11 +2717,103 @@
       </c>
     </row>
     <row r="14" spans="5:13">
+      <c r="E14">
+        <v>-74427.64</v>
+      </c>
       <c r="M14">
         <v>247325</v>
       </c>
     </row>
+    <row r="15" spans="5:13">
+      <c r="E15">
+        <v>30800</v>
+      </c>
+      <c r="H15">
+        <v>0.43435000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16">
+        <v>36036</v>
+      </c>
+      <c r="H16">
+        <f>1+H15</f>
+        <v>1.43435</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="E17">
+        <v>42162</v>
+      </c>
+      <c r="H17">
+        <f>F6+E15/H16+E16/H16^2+E17/H16^3+E18/H16^4+E19/H16^5</f>
+        <v>9.5527851037641085</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="E18">
+        <v>49330</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="E19">
+        <v>57716</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="J20">
+        <v>-247325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="J21">
+        <v>61010</v>
+      </c>
+      <c r="L21" s="63">
+        <f>IRR(J20:J25)</f>
+        <v>6.0912064293037971E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>0.43442081288774154</v>
+      </c>
+      <c r="G22" s="63">
+        <f>IRR(E14:E19)</f>
+        <v>0.43442081288774154</v>
+      </c>
+      <c r="J22">
+        <v>58238</v>
+      </c>
+      <c r="L22" s="64">
+        <f>NPV(L21,J21,J22,J23,J24,J25,)</f>
+        <v>247324.99999999686</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="G23" s="64">
+        <f>NPV(G22,E15:E19)</f>
+        <v>74427.639999999985</v>
+      </c>
+      <c r="J23">
+        <v>58238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>-3.8043007753434168E-12</v>
+      </c>
+      <c r="J24">
+        <v>58238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="J25">
+        <v>58238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
+++ b/trunk/4.3 Factibilidad Economica - Servidores/analisis de costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19020" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -782,6 +782,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,8 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,12 +1102,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85245952"/>
-        <c:axId val="70931584"/>
+        <c:axId val="91042560"/>
+        <c:axId val="91044480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85245952"/>
+        <c:axId val="91042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,12 +1161,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70931584"/>
+        <c:crossAx val="91044480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70931584"/>
+        <c:axId val="91044480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1193,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85245952"/>
+        <c:crossAx val="91042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1212,7 +1211,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1556,22 +1555,22 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="51" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" s="6" t="s">
@@ -2199,10 +2198,10 @@
     <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="45">
         <f>SUM(G3:G20)</f>
         <v>11667.64</v>
@@ -2225,20 +2224,20 @@
     </row>
     <row r="23" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="3:13" ht="15.75" thickBot="1">
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49">
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51">
         <f>SUM(G22,I22,K22,M22)</f>
         <v>74427.64</v>
       </c>
-      <c r="M24" s="50"/>
+      <c r="M24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2300,7 +2299,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -2328,7 +2327,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="56"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="31" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2353,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="56"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="31" t="s">
         <v>43</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C9" s="57"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="40" t="s">
         <v>44</v>
       </c>
@@ -2406,7 +2405,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2417,12 +2416,12 @@
       <c r="G10" s="25"/>
       <c r="H10" s="4"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="31" t="s">
         <v>47</v>
       </c>
@@ -2431,10 +2430,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="4"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="61"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="3:10" ht="15" customHeight="1">
-      <c r="C12" s="58"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="31" t="s">
         <v>51</v>
       </c>
@@ -2443,10 +2442,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="4"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="61"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="58"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="31" t="s">
         <v>48</v>
       </c>
@@ -2455,10 +2454,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="4"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="61"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C14" s="59"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="31" t="s">
         <v>49</v>
       </c>
@@ -2467,7 +2466,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="4"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1">
       <c r="C15" s="24" t="s">
@@ -2641,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:M25"/>
+  <dimension ref="B5:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2741,7 +2740,7 @@
         <v>1.43435</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:16">
       <c r="E17">
         <v>42162</v>
       </c>
@@ -2750,48 +2749,48 @@
         <v>9.5527851037641085</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:16">
       <c r="E18">
         <v>49330</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:16">
       <c r="E19">
         <v>57716</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:16">
       <c r="J20">
         <v>-247325</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:16">
       <c r="J21">
         <v>61010</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="47">
         <f>IRR(J20:J25)</f>
         <v>6.0912064293037971E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>0.43442081288774154</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="47">
         <f>IRR(E14:E19)</f>
         <v>0.43442081288774154</v>
       </c>
       <c r="J22">
         <v>58238</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="48">
         <f>NPV(L21,J21,J22,J23,J24,J25,)</f>
         <v>247324.99999999686</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
-      <c r="G23" s="64">
+    <row r="23" spans="2:16">
+      <c r="G23" s="48">
         <f>NPV(G22,E15:E19)</f>
         <v>74427.639999999985</v>
       </c>
@@ -2799,17 +2798,64 @@
         <v>58238</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>-3.8043007753434168E-12</v>
       </c>
       <c r="J24">
         <v>58238</v>
       </c>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="P24">
+        <f>36.2/100</f>
+        <v>0.36200000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="D25">
+        <v>247325</v>
+      </c>
       <c r="J25">
         <v>58238</v>
+      </c>
+      <c r="O25">
+        <f>SUM(J21:J25)</f>
+        <v>293962</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="G27">
+        <f>((D25-J21)/1.013+(D25-J22)/1.013^2+(D25-J23)/1.013^3+ (D25-J24)/1.013^4+J25/1.013^5)/(J21/1.013+J22/1.013^2+J23/1.013^3+J24/1.013^4+J25/1.013^5)</f>
+        <v>2.7721280068382432</v>
+      </c>
+      <c r="O27">
+        <f>P24*O25</f>
+        <v>106414.24400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="E29">
+        <f>89477/D25</f>
+        <v>0.3617790356817952</v>
+      </c>
+      <c r="H29">
+        <f>100*(O25-D25)/D25</f>
+        <v>18.85656524815526</v>
+      </c>
+      <c r="J29">
+        <f>J20/89477</f>
+        <v>-2.7641181532684378</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="K32">
+        <f>132606/74427.6</f>
+        <v>1.7816777647001918</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34">
+        <f>K32*100</f>
+        <v>178.16777647001919</v>
       </c>
     </row>
   </sheetData>
